--- a/config/律师能力等级及薪酬.xlsx
+++ b/config/律师能力等级及薪酬.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13747" windowHeight="6495"/>
+    <workbookView windowWidth="19200" windowHeight="9070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>能力等级</t>
   </si>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -113,17 +113,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,7 +135,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,10 +163,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,64 +217,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +258,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,85 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,85 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,25 +508,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,26 +560,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +609,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,10 +1101,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="16" customWidth="1"/>
   </cols>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1144,28 +1144,28 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C11" si="0">(E2-B2)/160</f>
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" ref="D2:D11" si="1">C2*160</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:F11" si="2">E2*13</f>
-        <v>19500</v>
+        <v>26000</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" ref="G2:G11" si="3">F2/(160*12)*2</f>
-        <v>20.3125</v>
+        <v>27.0833333333333</v>
       </c>
       <c r="H2" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="15.5" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1174,28 +1174,28 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="6">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>45500</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="3"/>
-        <v>40.625</v>
+        <v>47.3958333333333</v>
       </c>
       <c r="H3" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15.5" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1204,28 +1204,28 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>9.375</v>
+        <v>12.5</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="6">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>58500</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="3"/>
-        <v>54.1666666666667</v>
+        <v>60.9375</v>
       </c>
       <c r="H4" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15.5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1234,28 +1234,28 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>15.625</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="6">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>65000</v>
+        <v>71500</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="3"/>
-        <v>67.7083333333333</v>
+        <v>74.4791666666667</v>
       </c>
       <c r="H5" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="15.5" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1264,28 +1264,28 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>15.625</v>
+        <v>18.75</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E6" s="6">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>78000</v>
+        <v>84500</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>88.0208333333333</v>
       </c>
       <c r="H6" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="15.5" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="15.5" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="15.5" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" ht="15.5" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" ht="15.5" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>

--- a/config/律师能力等级及薪酬.xlsx
+++ b/config/律师能力等级及薪酬.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9070"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -103,20 +103,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -135,6 +121,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,24 +141,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,70 +204,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,13 +258,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +372,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,157 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,35 +558,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,11 +586,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,10 +1101,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="16" customWidth="1"/>
   </cols>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1143,29 +1143,29 @@
         <v>1000</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C11" si="0">(E2-B2)/160</f>
-        <v>6.25</v>
+        <f>(E2-B2)/144</f>
+        <v>6.94444444444444</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D11" si="1">C2*160</f>
+        <f>C2*144</f>
         <v>1000</v>
       </c>
       <c r="E2" s="6">
         <v>2000</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F11" si="2">E2*13</f>
+        <f t="shared" ref="F2:F11" si="0">E2*13</f>
         <v>26000</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G11" si="3">F2/(160*12)*2</f>
-        <v>27.0833333333333</v>
+        <f>F2/(144*12)*2</f>
+        <v>30.0925925925926</v>
       </c>
       <c r="H2" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" ht="15.5" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1173,29 +1173,29 @@
         <v>2000</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
-        <v>9.375</v>
+        <f t="shared" ref="C3:C11" si="1">(E3-B3)/144</f>
+        <v>10.4166666666667</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D11" si="2">C3*144</f>
         <v>1500</v>
       </c>
       <c r="E3" s="6">
         <v>3500</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45500</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="3"/>
-        <v>47.3958333333333</v>
+        <f t="shared" ref="G3:G11" si="3">F3/(144*12)*2</f>
+        <v>52.662037037037</v>
       </c>
       <c r="H3" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1203,29 +1203,29 @@
         <v>2500</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <f t="shared" si="1"/>
+        <v>13.8888888888889</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="E4" s="6">
         <v>4500</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>58500</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>67.7083333333333</v>
       </c>
       <c r="H4" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1233,29 +1233,29 @@
         <v>3000</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>15.625</v>
+        <f t="shared" si="1"/>
+        <v>17.3611111111111</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="E5" s="6">
         <v>5500</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>71500</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="3"/>
-        <v>74.4791666666667</v>
+        <v>82.7546296296296</v>
       </c>
       <c r="H5" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" ht="15.5" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1263,29 +1263,29 @@
         <v>3500</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="0"/>
-        <v>18.75</v>
+        <f t="shared" si="1"/>
+        <v>20.8333333333333</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="E6" s="6">
         <v>6500</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>84500</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>88.0208333333333</v>
+        <v>97.8009259259259</v>
       </c>
       <c r="H6" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="15.5" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1293,29 +1293,29 @@
         <v>4000</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>18.75</v>
+        <f t="shared" si="1"/>
+        <v>20.8333333333333</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="E7" s="6">
         <v>7000</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>94.7916666666667</v>
+        <v>105.324074074074</v>
       </c>
       <c r="H7" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" ht="15.5" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1323,29 +1323,29 @@
         <v>4500</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>21.875</v>
+        <f t="shared" si="1"/>
+        <v>24.3055555555556</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3500</v>
       </c>
       <c r="E8" s="6">
         <v>8000</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>104000</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="3"/>
-        <v>108.333333333333</v>
+        <v>120.37037037037</v>
       </c>
       <c r="H8" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" ht="15.5" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1353,29 +1353,29 @@
         <v>5000</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>31.25</v>
+        <f t="shared" si="1"/>
+        <v>34.7222222222222</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="E9" s="6">
         <v>10000</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>130000</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="3"/>
-        <v>135.416666666667</v>
+        <v>150.462962962963</v>
       </c>
       <c r="H9" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" ht="15.5" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1383,29 +1383,29 @@
         <v>5500</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>34.375</v>
+        <f t="shared" si="1"/>
+        <v>38.1944444444444</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5500</v>
       </c>
       <c r="E10" s="6">
         <v>11000</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>143000</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="3"/>
-        <v>148.958333333333</v>
+        <v>165.509259259259</v>
       </c>
       <c r="H10" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1413,23 +1413,23 @@
         <v>6000</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+        <f t="shared" si="1"/>
+        <v>41.6666666666667</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="E11" s="6">
         <v>12000</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>156000</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="3"/>
-        <v>162.5</v>
+        <v>180.555555555556</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>

--- a/config/律师能力等级及薪酬.xlsx
+++ b/config/律师能力等级及薪酬.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -105,6 +105,111 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -113,137 +218,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,13 +258,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,169 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +528,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -543,28 +558,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,18 +593,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1200,26 +1200,26 @@
         <v>10</v>
       </c>
       <c r="B4" s="5">
-        <v>2500</v>
+        <v>2750</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>13.8888888888889</v>
+        <v>15.625</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="E4" s="6">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>58500</v>
+        <v>65000</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="3"/>
-        <v>67.7083333333333</v>
+        <v>75.2314814814815</v>
       </c>
       <c r="H4" s="6">
         <v>0.3</v>
@@ -1290,15 +1290,15 @@
         <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>20.8333333333333</v>
+        <v>22.5694444444444</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="E7" s="6">
         <v>7000</v>
